--- a/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>58,15%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>240,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,57</t>
+          <t>-7,57; 6,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,4</t>
+          <t>-1,3; 8,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 7,62</t>
+          <t>-0,77; 7,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 2,59</t>
+          <t>4,06; 18,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 88,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 109,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 169,56</t>
+          <t>-59,79; 137,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 18,39</t>
+          <t>-20,27; 201,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 170,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42,42; 888,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,97</t>
+          <t>-0,19; 8,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,44</t>
+          <t>-4,59; 3,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,31</t>
+          <t>-3,05; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,47</t>
+          <t>-2,02; 5,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 136,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 63,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 44,6</t>
+          <t>-7,79; 235,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 77,63</t>
+          <t>-56,58; 126,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,28; 53,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 130,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-33,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>-40,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>-23,29%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,98</t>
+          <t>-8,4; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,22</t>
+          <t>-6,31; 1,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,62</t>
+          <t>-2,44; 2,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 3,73</t>
+          <t>-3,53; 4,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,78; 51,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,98; 203,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 97,88</t>
+          <t>-89,61; 89,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 69,94</t>
+          <t>-76,44; 150,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 111,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-43,94; 107,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-17,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,17</t>
+          <t>-1,33; 5,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,0</t>
+          <t>-5,22; 2,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,42</t>
+          <t>-5,74; 5,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 73,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 53,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 52,99</t>
+          <t>-19,09; 137,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 22,53</t>
+          <t>-57,51; 48,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-41,02; 71,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 3,44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 1,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 2,6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 5,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 78,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-32,2; 50,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 53,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 90,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-8,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>58,15%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>53,35%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>240,1%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-0.4355918993002514</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.506884456989777</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.478277232580247</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.69201580080945</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.05204092767920669</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.593680584654634</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.539144047025772</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.546663268872155</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 6,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 8,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 7,68</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 18,78</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-59,79; 137,88</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-20,27; 201,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-13,26; 170,68</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>42,42; 888,28</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.005536431462139</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.282715070453381</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9793246588971766</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.575465068577762</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6005979973491836</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1881288010656937</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1487179665444746</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.4804893453028223</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.767875510125347</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.245240325212261</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.616710437920276</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.3306354317777</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.437874178135736</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.038966266656743</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.750714986396333</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>9.334661789140434</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>73,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>28,61%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 8,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 3,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 2,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 5,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 235,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-56,58; 126,34</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-38,28; 53,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-24,92; 130,39</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.623807610132728</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6314775993207054</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2697302736730939</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.90871881285115</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.7263105737414842</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1315281607870899</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.0418611602453275</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2945224040843085</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-40,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-23,29%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5803051927509451</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.891549709497262</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.47711380596282</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.999658318066456</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.1089513557049509</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5303387623134946</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4040058715294805</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2414520047151273</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,4; 1,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 1,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 2,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 4,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-89,61; 89,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-76,44; 150,84</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-42,77; 111,96</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-43,94; 107,44</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.003343666448615</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.744920330272643</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.487658003687675</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.792277136397607</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>2.378279138701624</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.401082634762269</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5244830169687198</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.281001925109392</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>38,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-17,79%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.078758384574119</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7338175383496928</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3479724046694541</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.359747280583695</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.2865687250724613</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2135590833013392</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.08583109806067096</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.06018850205415137</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 5,37</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 2,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 5,78</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 137,03</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-57,51; 48,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-41,02; 71,37</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.18827708675683</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.191322137840094</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.448736369531979</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.590848336918594</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8749410635397025</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7586291854508423</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4429757680063275</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4355529263303213</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.981814844180884</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.953736020407171</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.012070570286283</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.234030304699524</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.236978433316195</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.635636080314979</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.110827631083186</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.110541924314665</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>26,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>15,81%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>32,77%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 3,44</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 1,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 2,6</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 5,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,75; 78,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-32,2; 50,35</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-14,67; 53,97</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 90,43</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.322375039367679</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8046262023158036</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.8313835930538644</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.580271543157062</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.2603392766916713</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1761089792462248</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1460653224937522</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.6018315086975639</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.41277505975321</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.804305209461336</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.089439105625135</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5744883185775042</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.2366282516159442</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3094728562583066</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1611601012400355</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.05869633987251958</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.031975820851157</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.827422043672235</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.602524824964604</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.240664664040644</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.04214961888468</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.900049324656124</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.5608135466005548</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.274811872236015</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
